--- a/excel-sheets/averaged-price-arm-study-data.xlsx
+++ b/excel-sheets/averaged-price-arm-study-data.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0.5769230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0.5230769230769231</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.5692307692307692</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0.3846153846153846</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.4769230769230769</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0.676923076923077</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0.4923076923076923</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0.6307692307692307</v>
       </c>
     </row>
   </sheetData>

--- a/excel-sheets/averaged-price-arm-study-data.xlsx
+++ b/excel-sheets/averaged-price-arm-study-data.xlsx
@@ -440,7 +440,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6500</v>
+        <v>4645</v>
       </c>
     </row>
     <row r="3">
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5769230769230769</v>
+        <v>-0.004142857142857137</v>
       </c>
     </row>
     <row r="4">
@@ -460,7 +460,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5230769230769231</v>
+        <v>-0.1047619047619048</v>
       </c>
     </row>
     <row r="5">
@@ -470,7 +470,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5692307692307692</v>
+        <v>-0.04619047619047618</v>
       </c>
     </row>
     <row r="6">
@@ -480,7 +480,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.3846153846153846</v>
+        <v>-0.143297619047619</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4769230769230769</v>
+        <v>-0.07426190476190477</v>
       </c>
     </row>
     <row r="8">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.4</v>
+        <v>-0.1021428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.676923076923077</v>
+        <v>0.01119047619047621</v>
       </c>
     </row>
     <row r="10">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.4923076923076923</v>
+        <v>0.03095238095238096</v>
       </c>
     </row>
     <row r="11">
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.6307692307692307</v>
+        <v>-0.01404761904761904</v>
       </c>
     </row>
   </sheetData>
